--- a/biology/Mycologie/Chalciporus/Chalciporus.xlsx
+++ b/biology/Mycologie/Chalciporus/Chalciporus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chalciporus est un genre de champignons de la famille des Boletaceae, proche du groupe des Boletus edulis. Petites espèces bolétoïdes à chapeau sec, velouté et viscidule par temps humide. Les pores sont de couleur rouille à maturité. Pied parfois excentré et jaune à la base.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chalciporus Bataille
 </t>
@@ -542,7 +556,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau :
 Cuticule sèche ou subviscidule, glabre. 
@@ -578,7 +594,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Régions Nord tempérées et pantropicales.
 Mycorhizes avec les Pinaceae et les Fagaceae.
@@ -610,7 +628,9 @@
           <t>Classification phylogénétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Certains Calchiporus forment un groupe, tandis que Calchiporus olivasporus est une espèce monogénique.[style à revoir]
 Boletaceae
@@ -657,7 +677,9 @@
           <t>Classification classique : espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chalciporus amarellus (Quél.) Bataille, Europe
  Chalciporus aurantiacus (McNabb) Pegler &amp; T.W.K. Young 1981
